--- a/data/ltu/original_data/ltu_2021.xlsx
+++ b/data/ltu/original_data/ltu_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilla/Documents/repos/open_apc_se/data/ltu/original_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilla/Documents/repos/openapc-se/data/ltu/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56883D84-5D2F-5143-AB13-7B49445255E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BCA330-77FF-3647-B429-520019341C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43540" yWindow="5700" windowWidth="30820" windowHeight="21700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31920" yWindow="6260" windowWidth="28800" windowHeight="16180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="220">
   <si>
     <t>institution</t>
   </si>
@@ -717,6 +717,9 @@
   </si>
   <si>
     <t>10.1088/1757-899X/1135/1/012001</t>
+  </si>
+  <si>
+    <t>10.1080/19942060.2021.1942990</t>
   </si>
 </sst>
 </file>
@@ -774,7 +777,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1072,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3905,7 +3918,7 @@
         <v>13678.17</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>13</v>
@@ -4532,6 +4545,9 @@
     <sortCondition ref="M2:M229"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ltu/original_data/ltu_2021.xlsx
+++ b/data/ltu/original_data/ltu_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilla/Documents/repos/openapc-se/data/ltu/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BCA330-77FF-3647-B429-520019341C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166341FB-7E62-2848-96D7-4C20DD74EAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31920" yWindow="6260" windowWidth="28800" windowHeight="16180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
